--- a/BackTest/2020-01-19 BackTest STRAT.xlsx
+++ b/BackTest/2020-01-19 BackTest STRAT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>39837.08629999999</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>39353.74009999999</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>380</v>
@@ -523,7 +523,7 @@
         <v>43794.43199999999</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>375.2</v>
@@ -562,7 +562,7 @@
         <v>43524.25369999999</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>377</v>
@@ -601,7 +601,7 @@
         <v>43224.25369999999</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>376</v>
@@ -640,7 +640,7 @@
         <v>44135.03519999998</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>375.1</v>
@@ -679,7 +679,7 @@
         <v>44135.03519999998</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>376.8</v>
@@ -718,7 +718,7 @@
         <v>44135.03519999998</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>376.8</v>
@@ -757,7 +757,7 @@
         <v>44345.03519999998</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>376.8</v>
@@ -796,7 +796,7 @@
         <v>43961.87519999998</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>376.9</v>
@@ -835,7 +835,7 @@
         <v>43961.87519999998</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>376.8</v>
@@ -874,9 +874,11 @@
         <v>43961.87519999998</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>376.8</v>
+      </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
@@ -911,9 +913,11 @@
         <v>43961.87519999998</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>376.8</v>
+      </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
@@ -948,9 +952,11 @@
         <v>43961.87519999998</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>376.8</v>
+      </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
@@ -985,9 +991,11 @@
         <v>43961.87519999998</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>376.8</v>
+      </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
@@ -1022,9 +1030,11 @@
         <v>44259.59819999998</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>376.8</v>
+      </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
@@ -1059,9 +1069,11 @@
         <v>44256.79819999998</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>377.8</v>
+      </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
@@ -1096,9 +1108,11 @@
         <v>44242.97949999997</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>376</v>
+      </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
@@ -1133,9 +1147,11 @@
         <v>44242.97949999997</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>375</v>
+      </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
@@ -1170,9 +1186,11 @@
         <v>44395.97949999997</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>375</v>
+      </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
@@ -1207,9 +1225,11 @@
         <v>44395.97949999997</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>377.8</v>
+      </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
@@ -1244,9 +1264,11 @@
         <v>50275.97949999997</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>377.8</v>
+      </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
@@ -1281,9 +1303,11 @@
         <v>50275.97949999997</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>380.3</v>
+      </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
@@ -1318,9 +1342,11 @@
         <v>50175.97949999997</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>380.3</v>
+      </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
@@ -1355,7 +1381,7 @@
         <v>50022.65559999997</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>376.1</v>
@@ -1394,7 +1420,7 @@
         <v>50022.65559999997</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>376</v>
@@ -1433,7 +1459,7 @@
         <v>50022.65559999997</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>376</v>
@@ -1472,9 +1498,11 @@
         <v>50022.65559999997</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>376</v>
+      </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
@@ -1509,9 +1537,11 @@
         <v>48706.17039999997</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>376</v>
+      </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
@@ -1546,7 +1576,7 @@
         <v>48099.79159999997</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>374.8</v>
@@ -1585,7 +1615,7 @@
         <v>48114.79159999997</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>373.5</v>
@@ -1624,7 +1654,7 @@
         <v>48110.79159999997</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>374.9</v>
@@ -1663,7 +1693,7 @@
         <v>48825.39159999997</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>372.5</v>
@@ -1702,7 +1732,7 @@
         <v>49246.46139999996</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>374.9</v>
@@ -1741,7 +1771,7 @@
         <v>49246.46139999996</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>375.9</v>
@@ -1780,7 +1810,7 @@
         <v>49246.46139999996</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>375.9</v>
@@ -1819,7 +1849,7 @@
         <v>49246.46139999996</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>375.9</v>
@@ -1858,7 +1888,7 @@
         <v>49246.46139999996</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>375.9</v>
@@ -1897,7 +1927,7 @@
         <v>49622.89829999996</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>375.9</v>
@@ -1936,7 +1966,7 @@
         <v>49622.89829999996</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>376</v>
@@ -1975,7 +2005,7 @@
         <v>49622.89829999996</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>376</v>
@@ -2014,7 +2044,7 @@
         <v>49622.89829999996</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>376</v>
@@ -2053,9 +2083,11 @@
         <v>49755.19729999996</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>376</v>
+      </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
@@ -2090,9 +2122,11 @@
         <v>49755.19729999996</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>378</v>
+      </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
@@ -2127,9 +2161,11 @@
         <v>49755.19729999996</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>378</v>
+      </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
@@ -2164,9 +2200,11 @@
         <v>49755.19729999996</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>378</v>
+      </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
@@ -2201,9 +2239,11 @@
         <v>49755.19729999996</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>378</v>
+      </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
@@ -2238,9 +2278,11 @@
         <v>49755.19729999996</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>378</v>
+      </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
@@ -2275,9 +2317,11 @@
         <v>49755.19729999996</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>378</v>
+      </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
@@ -2312,9 +2356,11 @@
         <v>49755.19729999996</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>378</v>
+      </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
@@ -2349,9 +2395,11 @@
         <v>49755.19729999996</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>378</v>
+      </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
@@ -2386,9 +2434,11 @@
         <v>49755.19729999996</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>378</v>
+      </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
@@ -2423,9 +2473,11 @@
         <v>49755.19729999996</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>378</v>
+      </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
@@ -2460,7 +2512,7 @@
         <v>45770.93779999996</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>378</v>
@@ -2499,7 +2551,7 @@
         <v>45911.72779999996</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>376</v>
@@ -2538,7 +2590,7 @@
         <v>45901.72779999996</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>377</v>
@@ -2577,7 +2629,7 @@
         <v>45901.72779999996</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>376</v>
@@ -2616,7 +2668,7 @@
         <v>45901.72779999996</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>376</v>
@@ -2655,7 +2707,7 @@
         <v>45738.86179999996</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>376</v>
@@ -2694,7 +2746,7 @@
         <v>48820.16179999997</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>373</v>
@@ -2733,7 +2785,7 @@
         <v>36106.34169999996</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>379.8</v>
@@ -2772,7 +2824,7 @@
         <v>48577.94459999996</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>376</v>
@@ -2811,7 +2863,7 @@
         <v>63558.88279999996</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>380</v>
@@ -2850,7 +2902,7 @@
         <v>68541.46979999996</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>383.5</v>
@@ -2889,7 +2941,7 @@
         <v>83130.08139999997</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>385.6</v>
@@ -2928,9 +2980,11 @@
         <v>119956.4264</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>388.7</v>
+      </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
@@ -2965,9 +3019,11 @@
         <v>131025.7851</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>393.5</v>
+      </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
@@ -3002,9 +3058,11 @@
         <v>131025.7851</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>395.4</v>
+      </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
@@ -3039,9 +3097,11 @@
         <v>156197.6945</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>395.4</v>
+      </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
@@ -3150,9 +3210,11 @@
         <v>125795.7807999999</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>394</v>
+      </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
@@ -3187,9 +3249,11 @@
         <v>129589.7987</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>387</v>
+      </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
@@ -3224,9 +3288,11 @@
         <v>123350.0983</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>389</v>
+      </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
@@ -3261,9 +3327,11 @@
         <v>107873.4488</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>386.1</v>
+      </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
@@ -3298,9 +3366,11 @@
         <v>109971.4488</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>385.7</v>
+      </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
@@ -3335,9 +3405,11 @@
         <v>107263.5616</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>391.9</v>
+      </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
@@ -3372,7 +3444,7 @@
         <v>99829.17869999996</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>387</v>
@@ -3411,9 +3483,11 @@
         <v>103740.5969</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>385.1</v>
+      </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
@@ -3448,9 +3522,11 @@
         <v>104646.1189</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>387</v>
+      </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
@@ -3485,9 +3561,11 @@
         <v>106588.0561</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>388</v>
+      </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
@@ -3522,9 +3600,11 @@
         <v>109757.7515</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>388.9</v>
+      </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
@@ -3559,9 +3639,11 @@
         <v>95903.07943884995</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>396.6</v>
+      </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
@@ -3707,9 +3789,11 @@
         <v>93618.09293884995</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>391.5</v>
+      </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
@@ -3744,9 +3828,11 @@
         <v>101702.6407166299</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>398</v>
+      </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
@@ -4299,9 +4385,11 @@
         <v>89537.77251662995</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>398.2</v>
+      </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
@@ -4336,9 +4424,11 @@
         <v>91484.93491662995</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>399</v>
+      </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
@@ -4373,9 +4463,11 @@
         <v>96211.85881662995</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>399.9</v>
+      </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
@@ -4410,9 +4502,11 @@
         <v>86011.62411662994</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>400.1</v>
+      </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
@@ -4447,9 +4541,11 @@
         <v>93947.24921662995</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>395</v>
+      </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
@@ -4484,9 +4580,11 @@
         <v>90999.29091662995</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>400</v>
+      </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
@@ -4521,9 +4619,11 @@
         <v>99747.62347655995</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>396</v>
+      </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
@@ -4558,9 +4658,11 @@
         <v>106938.70942971</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>402</v>
+      </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
@@ -4854,9 +4956,11 @@
         <v>111730.76052971</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>391.3</v>
+      </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
@@ -4891,9 +4995,11 @@
         <v>111785.76052971</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>396</v>
+      </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
@@ -4965,9 +5071,11 @@
         <v>110178.3682297099</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>391.1</v>
+      </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
@@ -5224,9 +5332,11 @@
         <v>111545.85612971</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>392</v>
+      </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
@@ -5261,9 +5371,11 @@
         <v>111411.75612971</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>394.9</v>
+      </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
@@ -5298,9 +5410,11 @@
         <v>111411.75612971</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>391.1</v>
+      </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
@@ -5335,9 +5449,11 @@
         <v>111554.49392971</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>391.1</v>
+      </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
@@ -5372,9 +5488,11 @@
         <v>100554.49392971</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>392</v>
+      </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
@@ -5409,9 +5527,11 @@
         <v>100579.40942971</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>390</v>
+      </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
@@ -5446,9 +5566,11 @@
         <v>100086.26202971</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>391</v>
+      </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
@@ -5483,9 +5605,11 @@
         <v>100086.26202971</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>389.4</v>
+      </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
@@ -5631,9 +5755,11 @@
         <v>73944.96262970997</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>387</v>
+      </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
@@ -5927,9 +6053,11 @@
         <v>66257.85442970997</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>388</v>
+      </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
@@ -5964,9 +6092,11 @@
         <v>66286.01982970997</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>388</v>
+      </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
@@ -6223,9 +6353,11 @@
         <v>64693.68702970996</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>385</v>
+      </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
@@ -6260,9 +6392,11 @@
         <v>68161.50802970996</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>383.7</v>
+      </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr">
         <is>
@@ -6371,9 +6505,11 @@
         <v>61778.70522970996</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>382.4</v>
+      </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
@@ -6408,9 +6544,11 @@
         <v>56508.90802970996</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>384</v>
+      </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
@@ -6445,9 +6583,11 @@
         <v>60071.90802970996</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>381.5</v>
+      </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
         <is>
@@ -6482,9 +6622,11 @@
         <v>57397.42832970996</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>382.8</v>
+      </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
@@ -6519,9 +6661,11 @@
         <v>55265.06452970996</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>380</v>
+      </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
@@ -6556,9 +6700,11 @@
         <v>55523.89232970996</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>379</v>
+      </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
@@ -6593,9 +6739,11 @@
         <v>50420.66152970996</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>382.8</v>
+      </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
@@ -6630,9 +6778,11 @@
         <v>51883.66152970996</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>375.5</v>
+      </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
@@ -6667,9 +6817,11 @@
         <v>51927.24172970996</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>377.7</v>
+      </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
@@ -6704,9 +6856,11 @@
         <v>51719.24182970996</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>383.4</v>
+      </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
@@ -6741,9 +6895,11 @@
         <v>54920.64182970996</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>380.9</v>
+      </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
@@ -6778,9 +6934,11 @@
         <v>55031.64182970996</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>383.3</v>
+      </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
@@ -6815,9 +6973,11 @@
         <v>54708.50992970996</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>383.4</v>
+      </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
@@ -6852,9 +7012,11 @@
         <v>54764.22902970996</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>381.2</v>
+      </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
@@ -6889,9 +7051,11 @@
         <v>54762.92902970996</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>384.4</v>
+      </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
@@ -6926,9 +7090,11 @@
         <v>54816.41932970996</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>384.3</v>
+      </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
@@ -6963,9 +7129,11 @@
         <v>61698.22562970995</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>384.4</v>
+      </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
@@ -7000,9 +7168,11 @@
         <v>58684.16702970996</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>384.9</v>
+      </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
@@ -7037,9 +7207,11 @@
         <v>69028.50562970995</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>382.8</v>
+      </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
@@ -7074,9 +7246,11 @@
         <v>72948.56502970995</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>387.4</v>
+      </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
@@ -8406,16 +8580,18 @@
         <v>156390.2025297099</v>
       </c>
       <c r="H215" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L215" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
       <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
@@ -8441,11 +8617,15 @@
         <v>193770.6242385599</v>
       </c>
       <c r="H216" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8474,11 +8654,15 @@
         <v>164033.8780906699</v>
       </c>
       <c r="H217" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8507,11 +8691,15 @@
         <v>195449.3705906699</v>
       </c>
       <c r="H218" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8540,11 +8728,15 @@
         <v>134674.3785305299</v>
       </c>
       <c r="H219" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8573,11 +8765,15 @@
         <v>188355.8347305299</v>
       </c>
       <c r="H220" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8606,11 +8802,15 @@
         <v>240325.2103305299</v>
       </c>
       <c r="H221" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8639,11 +8839,15 @@
         <v>177772.7178737099</v>
       </c>
       <c r="H222" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8672,11 +8876,15 @@
         <v>236876.6322238799</v>
       </c>
       <c r="H223" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8705,11 +8913,15 @@
         <v>317970.7406046299</v>
       </c>
       <c r="H224" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8738,11 +8950,15 @@
         <v>375423.0164478099</v>
       </c>
       <c r="H225" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8771,11 +8987,15 @@
         <v>422411.1111478099</v>
       </c>
       <c r="H226" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8804,11 +9024,15 @@
         <v>348686.1451478099</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8841,7 +9065,11 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8870,11 +9098,15 @@
         <v>359311.4534478099</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8903,11 +9135,15 @@
         <v>347920.6019478099</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8936,11 +9172,15 @@
         <v>343021.5543478099</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8969,11 +9209,15 @@
         <v>340481.08794781</v>
       </c>
       <c r="H232" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9002,11 +9246,15 @@
         <v>340642.8450478099</v>
       </c>
       <c r="H233" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9039,7 +9287,11 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9068,11 +9320,15 @@
         <v>319189.0822553399</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9101,11 +9357,15 @@
         <v>318251.45535534</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9134,11 +9394,15 @@
         <v>322523.04285534</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9167,14 +9431,16 @@
         <v>314971.30305534</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L238" t="inlineStr"/>
       <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
@@ -9200,7 +9466,7 @@
         <v>319807.72335534</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -9233,7 +9499,7 @@
         <v>262157.01545534</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -9266,7 +9532,7 @@
         <v>262157.01545534</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -9299,7 +9565,7 @@
         <v>262157.01545534</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -9332,7 +9598,7 @@
         <v>186482.07985534</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -9365,7 +9631,7 @@
         <v>196396.13995534</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -9398,7 +9664,7 @@
         <v>200535.23040491</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -9431,7 +9697,7 @@
         <v>198444.4621049101</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -9464,7 +9730,7 @@
         <v>215476.3028049101</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -10058,7 +10324,7 @@
         <v>236739.0753494301</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -10091,7 +10357,7 @@
         <v>237535.2021494301</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -10124,7 +10390,7 @@
         <v>231159.0405494301</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -10157,7 +10423,7 @@
         <v>231518.7707494301</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -10190,7 +10456,7 @@
         <v>231518.7707494301</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -10223,7 +10489,7 @@
         <v>230419.5690494301</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -10256,7 +10522,7 @@
         <v>230419.5690494301</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -10289,7 +10555,7 @@
         <v>231757.2306494301</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -10322,7 +10588,7 @@
         <v>230182.6004494301</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -10355,7 +10621,7 @@
         <v>230183.9004494301</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -10388,7 +10654,7 @@
         <v>230183.9004494301</v>
       </c>
       <c r="H275" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -10421,7 +10687,7 @@
         <v>229169.6507494301</v>
       </c>
       <c r="H276" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -10454,7 +10720,7 @@
         <v>229220.4707494301</v>
       </c>
       <c r="H277" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -10487,7 +10753,7 @@
         <v>230702.2551494301</v>
       </c>
       <c r="H278" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -10520,7 +10786,7 @@
         <v>231266.1051494301</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -10553,7 +10819,7 @@
         <v>231172.1051494301</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -10586,7 +10852,7 @@
         <v>230353.5986494301</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -10652,7 +10918,7 @@
         <v>242256.2406494301</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -10685,7 +10951,7 @@
         <v>244384.9847494301</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -10718,7 +10984,7 @@
         <v>243640.9472494301</v>
       </c>
       <c r="H285" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -10751,7 +11017,7 @@
         <v>237457.9492494301</v>
       </c>
       <c r="H286" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -10784,7 +11050,7 @@
         <v>237457.9492494301</v>
       </c>
       <c r="H287" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -10817,7 +11083,7 @@
         <v>237457.9492494301</v>
       </c>
       <c r="H288" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -10850,7 +11116,7 @@
         <v>237343.1192494301</v>
       </c>
       <c r="H289" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -11180,7 +11446,7 @@
         <v>237244.5809494302</v>
       </c>
       <c r="H299" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -11213,7 +11479,7 @@
         <v>234992.7429494302</v>
       </c>
       <c r="H300" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -11543,7 +11809,7 @@
         <v>238389.2598494302</v>
       </c>
       <c r="H310" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -11576,7 +11842,7 @@
         <v>238389.2598494302</v>
       </c>
       <c r="H311" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -11609,7 +11875,7 @@
         <v>237840.0376494302</v>
       </c>
       <c r="H312" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -11675,7 +11941,7 @@
         <v>238083.9400494302</v>
       </c>
       <c r="H314" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -11708,7 +11974,7 @@
         <v>234951.1997494302</v>
       </c>
       <c r="H315" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -11741,7 +12007,7 @@
         <v>237914.8846494302</v>
       </c>
       <c r="H316" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -11807,7 +12073,7 @@
         <v>235438.7625494302</v>
       </c>
       <c r="H318" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -11840,7 +12106,7 @@
         <v>237392.1066494301</v>
       </c>
       <c r="H319" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -11873,7 +12139,7 @@
         <v>237126.6842494301</v>
       </c>
       <c r="H320" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -12170,7 +12436,7 @@
         <v>225966.3010494301</v>
       </c>
       <c r="H329" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -12203,7 +12469,7 @@
         <v>225966.3010494301</v>
       </c>
       <c r="H330" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -12236,7 +12502,7 @@
         <v>227358.3760494301</v>
       </c>
       <c r="H331" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -12896,7 +13162,7 @@
         <v>215228.1741494302</v>
       </c>
       <c r="H351" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12962,7 +13228,7 @@
         <v>212970.5555494302</v>
       </c>
       <c r="H353" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12995,7 +13261,7 @@
         <v>203735.3649494302</v>
       </c>
       <c r="H354" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -13028,7 +13294,7 @@
         <v>203735.3649494302</v>
       </c>
       <c r="H355" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -13457,7 +13723,7 @@
         <v>206538.6902494301</v>
       </c>
       <c r="H368" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -13490,7 +13756,7 @@
         <v>206538.6902494301</v>
       </c>
       <c r="H369" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -13523,7 +13789,7 @@
         <v>208027.1367494301</v>
       </c>
       <c r="H370" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -13556,7 +13822,7 @@
         <v>208015.1367494301</v>
       </c>
       <c r="H371" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -13589,7 +13855,7 @@
         <v>208055.1367494301</v>
       </c>
       <c r="H372" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -13622,7 +13888,7 @@
         <v>202375.9253494301</v>
       </c>
       <c r="H373" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -13721,7 +13987,7 @@
         <v>188678.3580494301</v>
       </c>
       <c r="H376" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -13952,7 +14218,7 @@
         <v>205202.4137494301</v>
       </c>
       <c r="H383" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13985,7 +14251,7 @@
         <v>204750.8980494301</v>
       </c>
       <c r="H384" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -14018,7 +14284,7 @@
         <v>204750.8980494301</v>
       </c>
       <c r="H385" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -14051,7 +14317,7 @@
         <v>209986.4859494301</v>
       </c>
       <c r="H386" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -14084,7 +14350,7 @@
         <v>211717.4859494301</v>
       </c>
       <c r="H387" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -14117,7 +14383,7 @@
         <v>211116.1788494301</v>
       </c>
       <c r="H388" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -14150,7 +14416,7 @@
         <v>211238.9371494301</v>
       </c>
       <c r="H389" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -14183,7 +14449,7 @@
         <v>212237.9290494301</v>
       </c>
       <c r="H390" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -14216,7 +14482,7 @@
         <v>212531.4544494301</v>
       </c>
       <c r="H391" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -14249,7 +14515,7 @@
         <v>212227.0245494301</v>
       </c>
       <c r="H392" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -14282,7 +14548,7 @@
         <v>212227.0245494301</v>
       </c>
       <c r="H393" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -14315,7 +14581,7 @@
         <v>213467.0245494301</v>
       </c>
       <c r="H394" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -14348,7 +14614,7 @@
         <v>212757.5156494301</v>
       </c>
       <c r="H395" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -14381,7 +14647,7 @@
         <v>216411.1533494301</v>
       </c>
       <c r="H396" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -14414,7 +14680,7 @@
         <v>216211.8666494301</v>
       </c>
       <c r="H397" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -14447,7 +14713,7 @@
         <v>222656.5317494301</v>
       </c>
       <c r="H398" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -14480,7 +14746,7 @@
         <v>222656.5317494301</v>
       </c>
       <c r="H399" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -14524,6 +14790,6 @@
       <c r="M400" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-19 BackTest STRAT.xlsx
+++ b/BackTest/2020-01-19 BackTest STRAT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>39837.08629999999</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,17 +484,11 @@
         <v>39353.74009999999</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>380</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -523,17 +517,11 @@
         <v>43794.43199999999</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>375.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,17 +550,11 @@
         <v>43524.25369999999</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>377</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -606,12 +588,10 @@
       <c r="I6" t="n">
         <v>376</v>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J6" t="n">
+        <v>376</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -645,10 +625,12 @@
       <c r="I7" t="n">
         <v>375.1</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>376</v>
+      </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L7" t="n">
@@ -684,10 +666,12 @@
       <c r="I8" t="n">
         <v>376.8</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>376</v>
+      </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L8" t="n">
@@ -718,17 +702,11 @@
         <v>44135.03519999998</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>376.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -762,12 +740,10 @@
       <c r="I10" t="n">
         <v>376.8</v>
       </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="n">
+        <v>376.8</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -801,10 +777,12 @@
       <c r="I11" t="n">
         <v>376.9</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L11" t="n">
@@ -840,10 +818,12 @@
       <c r="I12" t="n">
         <v>376.8</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L12" t="n">
@@ -879,12 +859,10 @@
       <c r="I13" t="n">
         <v>376.8</v>
       </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="n">
+        <v>376.8</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -918,10 +896,12 @@
       <c r="I14" t="n">
         <v>376.8</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L14" t="n">
@@ -957,10 +937,12 @@
       <c r="I15" t="n">
         <v>376.8</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L15" t="n">
@@ -996,12 +978,10 @@
       <c r="I16" t="n">
         <v>376.8</v>
       </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="n">
+        <v>376.8</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1035,10 +1015,12 @@
       <c r="I17" t="n">
         <v>376.8</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L17" t="n">
@@ -1074,7 +1056,9 @@
       <c r="I18" t="n">
         <v>377.8</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1113,7 +1097,9 @@
       <c r="I19" t="n">
         <v>376</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1152,7 +1138,9 @@
       <c r="I20" t="n">
         <v>375</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1191,7 +1179,9 @@
       <c r="I21" t="n">
         <v>375</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1230,7 +1220,9 @@
       <c r="I22" t="n">
         <v>377.8</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1269,7 +1261,9 @@
       <c r="I23" t="n">
         <v>377.8</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1308,7 +1302,9 @@
       <c r="I24" t="n">
         <v>380.3</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1347,7 +1343,9 @@
       <c r="I25" t="n">
         <v>380.3</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1386,7 +1384,9 @@
       <c r="I26" t="n">
         <v>376.1</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1425,7 +1425,9 @@
       <c r="I27" t="n">
         <v>376</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1464,7 +1466,9 @@
       <c r="I28" t="n">
         <v>376</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1503,7 +1507,9 @@
       <c r="I29" t="n">
         <v>376</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1542,7 +1548,9 @@
       <c r="I30" t="n">
         <v>376</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1581,7 +1589,9 @@
       <c r="I31" t="n">
         <v>374.8</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1620,7 +1630,9 @@
       <c r="I32" t="n">
         <v>373.5</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1659,7 +1671,9 @@
       <c r="I33" t="n">
         <v>374.9</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1698,7 +1712,9 @@
       <c r="I34" t="n">
         <v>372.5</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1737,7 +1753,9 @@
       <c r="I35" t="n">
         <v>374.9</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1776,7 +1794,9 @@
       <c r="I36" t="n">
         <v>375.9</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1815,7 +1835,9 @@
       <c r="I37" t="n">
         <v>375.9</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1854,7 +1876,9 @@
       <c r="I38" t="n">
         <v>375.9</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1893,7 +1917,9 @@
       <c r="I39" t="n">
         <v>375.9</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1932,7 +1958,9 @@
       <c r="I40" t="n">
         <v>375.9</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1971,7 +1999,9 @@
       <c r="I41" t="n">
         <v>376</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2010,7 +2040,9 @@
       <c r="I42" t="n">
         <v>376</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2049,7 +2081,9 @@
       <c r="I43" t="n">
         <v>376</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2088,7 +2122,9 @@
       <c r="I44" t="n">
         <v>376</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2127,7 +2163,9 @@
       <c r="I45" t="n">
         <v>378</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2166,7 +2204,9 @@
       <c r="I46" t="n">
         <v>378</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2205,7 +2245,9 @@
       <c r="I47" t="n">
         <v>378</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2244,7 +2286,9 @@
       <c r="I48" t="n">
         <v>378</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2283,7 +2327,9 @@
       <c r="I49" t="n">
         <v>378</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2322,7 +2368,9 @@
       <c r="I50" t="n">
         <v>378</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2361,7 +2409,9 @@
       <c r="I51" t="n">
         <v>378</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2400,7 +2450,9 @@
       <c r="I52" t="n">
         <v>378</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2439,7 +2491,9 @@
       <c r="I53" t="n">
         <v>378</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2478,7 +2532,9 @@
       <c r="I54" t="n">
         <v>378</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2517,7 +2573,9 @@
       <c r="I55" t="n">
         <v>378</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2556,7 +2614,9 @@
       <c r="I56" t="n">
         <v>376</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2595,7 +2655,9 @@
       <c r="I57" t="n">
         <v>377</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2634,7 +2696,9 @@
       <c r="I58" t="n">
         <v>376</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2673,7 +2737,9 @@
       <c r="I59" t="n">
         <v>376</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2712,7 +2778,9 @@
       <c r="I60" t="n">
         <v>376</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2751,7 +2819,9 @@
       <c r="I61" t="n">
         <v>373</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2790,7 +2860,9 @@
       <c r="I62" t="n">
         <v>379.8</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2829,7 +2901,9 @@
       <c r="I63" t="n">
         <v>376</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2868,7 +2942,9 @@
       <c r="I64" t="n">
         <v>380</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2907,7 +2983,9 @@
       <c r="I65" t="n">
         <v>383.5</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2941,12 +3019,12 @@
         <v>83130.08139999997</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>385.6</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2980,12 +3058,12 @@
         <v>119956.4264</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>388.7</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3019,12 +3097,12 @@
         <v>131025.7851</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>393.5</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3058,12 +3136,12 @@
         <v>131025.7851</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>395.4</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3097,12 +3175,12 @@
         <v>156197.6945</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>395.4</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3139,7 +3217,9 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3176,7 +3256,9 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3210,12 +3292,12 @@
         <v>125795.7807999999</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>394</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3249,12 +3331,12 @@
         <v>129589.7987</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>387</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3288,12 +3370,12 @@
         <v>123350.0983</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>389</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3327,12 +3409,12 @@
         <v>107873.4488</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>386.1</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3366,12 +3448,12 @@
         <v>109971.4488</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>385.7</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3405,12 +3487,12 @@
         <v>107263.5616</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>391.9</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3444,12 +3526,12 @@
         <v>99829.17869999996</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>387</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3483,12 +3565,12 @@
         <v>103740.5969</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>385.1</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3522,12 +3604,12 @@
         <v>104646.1189</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>387</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3561,12 +3643,12 @@
         <v>106588.0561</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>388</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3600,12 +3682,12 @@
         <v>109757.7515</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>388.9</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3639,12 +3721,12 @@
         <v>95903.07943884995</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>396.6</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3681,7 +3763,9 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3718,7 +3802,9 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3755,7 +3841,9 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3789,12 +3877,12 @@
         <v>93618.09293884995</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>391.5</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3828,12 +3916,12 @@
         <v>101702.6407166299</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>398</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3870,7 +3958,9 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3907,7 +3997,9 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3944,7 +4036,9 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3981,7 +4075,9 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4018,7 +4114,9 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4055,7 +4153,9 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4092,7 +4192,9 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4129,7 +4231,9 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4166,7 +4270,9 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4203,7 +4309,9 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4240,7 +4348,9 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4277,7 +4387,9 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4314,7 +4426,9 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4351,7 +4465,9 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4385,12 +4501,12 @@
         <v>89537.77251662995</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>398.2</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4424,12 +4540,12 @@
         <v>91484.93491662995</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>399</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4463,12 +4579,12 @@
         <v>96211.85881662995</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>399.9</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4502,12 +4618,12 @@
         <v>86011.62411662994</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>400.1</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4541,12 +4657,12 @@
         <v>93947.24921662995</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>395</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4580,12 +4696,12 @@
         <v>90999.29091662995</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>400</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4619,12 +4735,12 @@
         <v>99747.62347655995</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>396</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4658,12 +4774,12 @@
         <v>106938.70942971</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>402</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4700,7 +4816,9 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4737,7 +4855,9 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4774,7 +4894,9 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4811,7 +4933,9 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4848,7 +4972,9 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4885,7 +5011,9 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4922,7 +5050,9 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4956,12 +5086,12 @@
         <v>111730.76052971</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>391.3</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4995,12 +5125,12 @@
         <v>111785.76052971</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>396</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5037,7 +5167,9 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5071,12 +5203,12 @@
         <v>110178.3682297099</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>391.1</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5113,7 +5245,9 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5150,7 +5284,9 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5187,7 +5323,9 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5224,7 +5362,9 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5261,7 +5401,9 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5298,7 +5440,9 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5332,12 +5476,12 @@
         <v>111545.85612971</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>392</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5371,12 +5515,12 @@
         <v>111411.75612971</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5410,12 +5554,12 @@
         <v>111411.75612971</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>391.1</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5449,12 +5593,12 @@
         <v>111554.49392971</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>391.1</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5488,12 +5632,12 @@
         <v>100554.49392971</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>392</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5527,12 +5671,12 @@
         <v>100579.40942971</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>390</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5566,12 +5710,12 @@
         <v>100086.26202971</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>391</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5605,12 +5749,12 @@
         <v>100086.26202971</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>389.4</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5647,7 +5791,9 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5684,7 +5830,9 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5721,7 +5869,9 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5755,12 +5905,12 @@
         <v>73944.96262970997</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>387</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5797,7 +5947,9 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5834,7 +5986,9 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5871,7 +6025,9 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5908,7 +6064,9 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5945,7 +6103,9 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5982,7 +6142,9 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6019,7 +6181,9 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6053,12 +6217,12 @@
         <v>66257.85442970997</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>388</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6092,12 +6256,12 @@
         <v>66286.01982970997</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>388</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6134,7 +6298,9 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6171,7 +6337,9 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6208,7 +6376,9 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6245,7 +6415,9 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6282,7 +6454,9 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6319,7 +6493,9 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6353,12 +6529,12 @@
         <v>64693.68702970996</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
-        <v>385</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6392,12 +6568,12 @@
         <v>68161.50802970996</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>383.7</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6434,7 +6610,9 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6471,7 +6649,9 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6505,12 +6685,12 @@
         <v>61778.70522970996</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>382.4</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6544,12 +6724,12 @@
         <v>56508.90802970996</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>384</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6583,12 +6763,12 @@
         <v>60071.90802970996</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I162" t="n">
-        <v>381.5</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6622,12 +6802,12 @@
         <v>57397.42832970996</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>382.8</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6661,12 +6841,12 @@
         <v>55265.06452970996</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
-        <v>380</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6700,12 +6880,12 @@
         <v>55523.89232970996</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
-        <v>379</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6739,12 +6919,12 @@
         <v>50420.66152970996</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>382.8</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6778,12 +6958,12 @@
         <v>51883.66152970996</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>375.5</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6822,7 +7002,9 @@
       <c r="I168" t="n">
         <v>377.7</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6856,12 +7038,12 @@
         <v>51719.24182970996</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>383.4</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6895,12 +7077,12 @@
         <v>54920.64182970996</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>380.9</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6934,12 +7116,12 @@
         <v>55031.64182970996</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>383.3</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6973,12 +7155,12 @@
         <v>54708.50992970996</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>383.4</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7012,12 +7194,12 @@
         <v>54764.22902970996</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>381.2</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7051,12 +7233,12 @@
         <v>54762.92902970996</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>384.4</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7090,12 +7272,12 @@
         <v>54816.41932970996</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>384.3</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7129,12 +7311,12 @@
         <v>61698.22562970995</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>384.4</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7168,12 +7350,12 @@
         <v>58684.16702970996</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>384.9</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7207,12 +7389,12 @@
         <v>69028.50562970995</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" t="n">
-        <v>382.8</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7246,12 +7428,12 @@
         <v>72948.56502970995</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>387.4</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7288,7 +7470,9 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7325,7 +7509,9 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7362,7 +7548,9 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7399,7 +7587,9 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7436,7 +7626,9 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7473,7 +7665,9 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7510,7 +7704,9 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7547,7 +7743,9 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7584,7 +7782,9 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7621,7 +7821,9 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7658,7 +7860,9 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7695,7 +7899,9 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7732,7 +7938,9 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7769,7 +7977,9 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7806,7 +8016,9 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7843,7 +8055,9 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7880,7 +8094,9 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7917,7 +8133,9 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7954,7 +8172,9 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7991,7 +8211,9 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8028,7 +8250,9 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8065,7 +8289,9 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8102,7 +8328,9 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8139,7 +8367,9 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8176,7 +8406,9 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8213,7 +8445,9 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8250,7 +8484,9 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8287,7 +8523,9 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8324,7 +8562,9 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8361,7 +8601,9 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8398,7 +8640,9 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8435,7 +8679,9 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8472,7 +8718,9 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8509,7 +8757,9 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8546,7 +8796,9 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8583,7 +8835,9 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8620,7 +8874,9 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8657,7 +8913,9 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8694,7 +8952,9 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8731,7 +8991,9 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8768,7 +9030,9 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8802,19 +9066,23 @@
         <v>240325.2103305299</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>376.8</v>
+      </c>
       <c r="K221" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+        <v>1.119734607218684</v>
+      </c>
+      <c r="M221" t="n">
+        <v>1.019860440150295</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8839,15 +9107,11 @@
         <v>177772.7178737099</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8880,11 +9144,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8917,11 +9177,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8954,11 +9210,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8991,11 +9243,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -9028,11 +9276,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -9065,11 +9309,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -9102,11 +9342,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9139,11 +9375,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9176,11 +9408,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9213,11 +9441,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9250,11 +9474,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9287,11 +9507,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9324,11 +9540,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9361,11 +9573,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9398,11 +9606,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9431,16 +9635,14 @@
         <v>314971.30305534</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
       <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
@@ -9466,7 +9668,7 @@
         <v>319807.72335534</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -9499,7 +9701,7 @@
         <v>262157.01545534</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -9532,7 +9734,7 @@
         <v>262157.01545534</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -9565,7 +9767,7 @@
         <v>262157.01545534</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -9631,7 +9833,7 @@
         <v>196396.13995534</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -9796,7 +9998,7 @@
         <v>232281.7221049101</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -9829,7 +10031,7 @@
         <v>235243.6047049101</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -9862,7 +10064,7 @@
         <v>221548.2519049101</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -9895,7 +10097,7 @@
         <v>221548.2519049101</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -9928,7 +10130,7 @@
         <v>221772.5833049101</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -9961,7 +10163,7 @@
         <v>221638.8953049101</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -9994,7 +10196,7 @@
         <v>221702.8953049101</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -10324,7 +10526,7 @@
         <v>236739.0753494301</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -10357,7 +10559,7 @@
         <v>237535.2021494301</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -10390,7 +10592,7 @@
         <v>231159.0405494301</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -10423,7 +10625,7 @@
         <v>231518.7707494301</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -10456,7 +10658,7 @@
         <v>231518.7707494301</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -10489,7 +10691,7 @@
         <v>230419.5690494301</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -10522,7 +10724,7 @@
         <v>230419.5690494301</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -10555,7 +10757,7 @@
         <v>231757.2306494301</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -10588,7 +10790,7 @@
         <v>230182.6004494301</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -10621,7 +10823,7 @@
         <v>230183.9004494301</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -10654,7 +10856,7 @@
         <v>230183.9004494301</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -10687,7 +10889,7 @@
         <v>229169.6507494301</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -10720,7 +10922,7 @@
         <v>229220.4707494301</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -10753,7 +10955,7 @@
         <v>230702.2551494301</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -10786,7 +10988,7 @@
         <v>231266.1051494301</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -10819,7 +11021,7 @@
         <v>231172.1051494301</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -10852,7 +11054,7 @@
         <v>230353.5986494301</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -10918,7 +11120,7 @@
         <v>242256.2406494301</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -10951,7 +11153,7 @@
         <v>244384.9847494301</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -10984,7 +11186,7 @@
         <v>243640.9472494301</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -11017,7 +11219,7 @@
         <v>237457.9492494301</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -14790,6 +14992,6 @@
       <c r="M400" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-19 BackTest STRAT.xlsx
+++ b/BackTest/2020-01-19 BackTest STRAT.xlsx
@@ -451,7 +451,7 @@
         <v>39837.08629999999</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,11 +484,17 @@
         <v>39353.74009999999</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>380</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -517,11 +523,17 @@
         <v>43794.43199999999</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>375.2</v>
+      </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,17 @@
         <v>43524.25369999999</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>377</v>
+      </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -588,10 +606,12 @@
       <c r="I6" t="n">
         <v>376</v>
       </c>
-      <c r="J6" t="n">
-        <v>376</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -625,12 +645,10 @@
       <c r="I7" t="n">
         <v>375.1</v>
       </c>
-      <c r="J7" t="n">
-        <v>376</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L7" t="n">
@@ -666,12 +684,10 @@
       <c r="I8" t="n">
         <v>376.8</v>
       </c>
-      <c r="J8" t="n">
-        <v>376</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L8" t="n">
@@ -702,11 +718,17 @@
         <v>44135.03519999998</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>376.8</v>
+      </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -740,10 +762,12 @@
       <c r="I10" t="n">
         <v>376.8</v>
       </c>
-      <c r="J10" t="n">
-        <v>376.8</v>
-      </c>
-      <c r="K10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -777,12 +801,10 @@
       <c r="I11" t="n">
         <v>376.9</v>
       </c>
-      <c r="J11" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L11" t="n">
@@ -818,12 +840,10 @@
       <c r="I12" t="n">
         <v>376.8</v>
       </c>
-      <c r="J12" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L12" t="n">
@@ -859,10 +879,12 @@
       <c r="I13" t="n">
         <v>376.8</v>
       </c>
-      <c r="J13" t="n">
-        <v>376.8</v>
-      </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -896,12 +918,10 @@
       <c r="I14" t="n">
         <v>376.8</v>
       </c>
-      <c r="J14" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L14" t="n">
@@ -937,12 +957,10 @@
       <c r="I15" t="n">
         <v>376.8</v>
       </c>
-      <c r="J15" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L15" t="n">
@@ -978,10 +996,12 @@
       <c r="I16" t="n">
         <v>376.8</v>
       </c>
-      <c r="J16" t="n">
-        <v>376.8</v>
-      </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1015,12 +1035,10 @@
       <c r="I17" t="n">
         <v>376.8</v>
       </c>
-      <c r="J17" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L17" t="n">
@@ -1056,9 +1074,7 @@
       <c r="I18" t="n">
         <v>377.8</v>
       </c>
-      <c r="J18" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1097,9 +1113,7 @@
       <c r="I19" t="n">
         <v>376</v>
       </c>
-      <c r="J19" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1138,9 +1152,7 @@
       <c r="I20" t="n">
         <v>375</v>
       </c>
-      <c r="J20" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1179,9 +1191,7 @@
       <c r="I21" t="n">
         <v>375</v>
       </c>
-      <c r="J21" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1220,9 +1230,7 @@
       <c r="I22" t="n">
         <v>377.8</v>
       </c>
-      <c r="J22" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1261,9 +1269,7 @@
       <c r="I23" t="n">
         <v>377.8</v>
       </c>
-      <c r="J23" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1302,9 +1308,7 @@
       <c r="I24" t="n">
         <v>380.3</v>
       </c>
-      <c r="J24" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1338,14 +1342,10 @@
         <v>50175.97949999997</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>380.3</v>
-      </c>
-      <c r="J25" t="n">
-        <v>376.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1384,9 +1384,7 @@
       <c r="I26" t="n">
         <v>376.1</v>
       </c>
-      <c r="J26" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1425,9 +1423,7 @@
       <c r="I27" t="n">
         <v>376</v>
       </c>
-      <c r="J27" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1466,9 +1462,7 @@
       <c r="I28" t="n">
         <v>376</v>
       </c>
-      <c r="J28" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1507,9 +1501,7 @@
       <c r="I29" t="n">
         <v>376</v>
       </c>
-      <c r="J29" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1548,9 +1540,7 @@
       <c r="I30" t="n">
         <v>376</v>
       </c>
-      <c r="J30" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1589,9 +1579,7 @@
       <c r="I31" t="n">
         <v>374.8</v>
       </c>
-      <c r="J31" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1630,9 +1618,7 @@
       <c r="I32" t="n">
         <v>373.5</v>
       </c>
-      <c r="J32" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1671,9 +1657,7 @@
       <c r="I33" t="n">
         <v>374.9</v>
       </c>
-      <c r="J33" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1712,9 +1696,7 @@
       <c r="I34" t="n">
         <v>372.5</v>
       </c>
-      <c r="J34" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1753,9 +1735,7 @@
       <c r="I35" t="n">
         <v>374.9</v>
       </c>
-      <c r="J35" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1794,9 +1774,7 @@
       <c r="I36" t="n">
         <v>375.9</v>
       </c>
-      <c r="J36" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1835,9 +1813,7 @@
       <c r="I37" t="n">
         <v>375.9</v>
       </c>
-      <c r="J37" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1876,9 +1852,7 @@
       <c r="I38" t="n">
         <v>375.9</v>
       </c>
-      <c r="J38" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1917,9 +1891,7 @@
       <c r="I39" t="n">
         <v>375.9</v>
       </c>
-      <c r="J39" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1958,9 +1930,7 @@
       <c r="I40" t="n">
         <v>375.9</v>
       </c>
-      <c r="J40" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1999,9 +1969,7 @@
       <c r="I41" t="n">
         <v>376</v>
       </c>
-      <c r="J41" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2040,9 +2008,7 @@
       <c r="I42" t="n">
         <v>376</v>
       </c>
-      <c r="J42" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2081,9 +2047,7 @@
       <c r="I43" t="n">
         <v>376</v>
       </c>
-      <c r="J43" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2122,9 +2086,7 @@
       <c r="I44" t="n">
         <v>376</v>
       </c>
-      <c r="J44" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2163,9 +2125,7 @@
       <c r="I45" t="n">
         <v>378</v>
       </c>
-      <c r="J45" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2204,9 +2164,7 @@
       <c r="I46" t="n">
         <v>378</v>
       </c>
-      <c r="J46" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2245,9 +2203,7 @@
       <c r="I47" t="n">
         <v>378</v>
       </c>
-      <c r="J47" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2286,9 +2242,7 @@
       <c r="I48" t="n">
         <v>378</v>
       </c>
-      <c r="J48" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2327,9 +2281,7 @@
       <c r="I49" t="n">
         <v>378</v>
       </c>
-      <c r="J49" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2368,9 +2320,7 @@
       <c r="I50" t="n">
         <v>378</v>
       </c>
-      <c r="J50" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2409,9 +2359,7 @@
       <c r="I51" t="n">
         <v>378</v>
       </c>
-      <c r="J51" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2450,9 +2398,7 @@
       <c r="I52" t="n">
         <v>378</v>
       </c>
-      <c r="J52" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2491,9 +2437,7 @@
       <c r="I53" t="n">
         <v>378</v>
       </c>
-      <c r="J53" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2532,9 +2476,7 @@
       <c r="I54" t="n">
         <v>378</v>
       </c>
-      <c r="J54" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2573,9 +2515,7 @@
       <c r="I55" t="n">
         <v>378</v>
       </c>
-      <c r="J55" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2614,9 +2554,7 @@
       <c r="I56" t="n">
         <v>376</v>
       </c>
-      <c r="J56" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2655,9 +2593,7 @@
       <c r="I57" t="n">
         <v>377</v>
       </c>
-      <c r="J57" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2696,9 +2632,7 @@
       <c r="I58" t="n">
         <v>376</v>
       </c>
-      <c r="J58" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2737,9 +2671,7 @@
       <c r="I59" t="n">
         <v>376</v>
       </c>
-      <c r="J59" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2778,9 +2710,7 @@
       <c r="I60" t="n">
         <v>376</v>
       </c>
-      <c r="J60" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2819,9 +2749,7 @@
       <c r="I61" t="n">
         <v>373</v>
       </c>
-      <c r="J61" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2860,9 +2788,7 @@
       <c r="I62" t="n">
         <v>379.8</v>
       </c>
-      <c r="J62" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2901,9 +2827,7 @@
       <c r="I63" t="n">
         <v>376</v>
       </c>
-      <c r="J63" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2942,9 +2866,7 @@
       <c r="I64" t="n">
         <v>380</v>
       </c>
-      <c r="J64" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2983,9 +2905,7 @@
       <c r="I65" t="n">
         <v>383.5</v>
       </c>
-      <c r="J65" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3022,9 +2942,7 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3061,9 +2979,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3100,9 +3016,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3139,9 +3053,7 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3178,9 +3090,7 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3217,9 +3127,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3256,9 +3164,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3295,9 +3201,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3334,9 +3238,7 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3373,9 +3275,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3412,9 +3312,7 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3451,9 +3349,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3490,9 +3386,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3529,9 +3423,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3568,9 +3460,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3607,9 +3497,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3646,9 +3534,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3685,9 +3571,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3724,9 +3608,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3763,9 +3645,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3802,9 +3682,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3841,9 +3719,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3880,9 +3756,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3919,9 +3793,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3958,9 +3830,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3997,9 +3867,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4036,9 +3904,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4075,9 +3941,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4114,9 +3978,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4153,9 +4015,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4192,9 +4052,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4231,9 +4089,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4270,9 +4126,7 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4309,9 +4163,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4348,9 +4200,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4387,9 +4237,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4426,9 +4274,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4465,9 +4311,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4504,9 +4348,7 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4543,9 +4385,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4582,9 +4422,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4621,9 +4459,7 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4660,9 +4496,7 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4699,9 +4533,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4738,9 +4570,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4777,9 +4607,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4816,9 +4644,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4855,9 +4681,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4894,9 +4718,7 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4933,9 +4755,7 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4972,9 +4792,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5011,9 +4829,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5050,9 +4866,7 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5089,9 +4903,7 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5128,9 +4940,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5167,9 +4977,7 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5206,9 +5014,7 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5245,9 +5051,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5284,9 +5088,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5323,9 +5125,7 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5362,9 +5162,7 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5401,9 +5199,7 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5440,9 +5236,7 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5479,9 +5273,7 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5518,9 +5310,7 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5557,9 +5347,7 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5596,9 +5384,7 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5635,9 +5421,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5674,9 +5458,7 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5713,9 +5495,7 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5752,9 +5532,7 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5791,9 +5569,7 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5830,9 +5606,7 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5869,9 +5643,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5908,9 +5680,7 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5947,9 +5717,7 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5986,9 +5754,7 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6025,9 +5791,7 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6064,9 +5828,7 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6103,9 +5865,7 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6142,9 +5902,7 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6181,9 +5939,7 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6220,9 +5976,7 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6259,9 +6013,7 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6298,9 +6050,7 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6337,9 +6087,7 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6376,9 +6124,7 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6415,9 +6161,7 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6454,9 +6198,7 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6493,9 +6235,7 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6532,9 +6272,7 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6571,9 +6309,7 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6610,9 +6346,7 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6649,9 +6383,7 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6688,9 +6420,7 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6727,9 +6457,7 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6766,9 +6494,7 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6805,9 +6531,7 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6844,9 +6568,7 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6883,9 +6605,7 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6922,9 +6642,7 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6961,9 +6679,7 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6997,14 +6713,10 @@
         <v>51927.24172970996</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>377.7</v>
-      </c>
-      <c r="J168" t="n">
-        <v>376.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7041,9 +6753,7 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7080,9 +6790,7 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7119,9 +6827,7 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7158,9 +6864,7 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7197,9 +6901,7 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7236,9 +6938,7 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7275,9 +6975,7 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7314,9 +7012,7 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7353,9 +7049,7 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7392,9 +7086,7 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7431,9 +7123,7 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7470,9 +7160,7 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7509,9 +7197,7 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7548,9 +7234,7 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7587,9 +7271,7 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7626,9 +7308,7 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7665,9 +7345,7 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7704,9 +7382,7 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7743,9 +7419,7 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7782,9 +7456,7 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7821,9 +7493,7 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7860,9 +7530,7 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7899,9 +7567,7 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7938,9 +7604,7 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7977,9 +7641,7 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8016,9 +7678,7 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8055,9 +7715,7 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8094,9 +7752,7 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8133,9 +7789,7 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8172,9 +7826,7 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8211,9 +7863,7 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8250,9 +7900,7 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8289,9 +7937,7 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8328,9 +7974,7 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8367,9 +8011,7 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8406,9 +8048,7 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8445,9 +8085,7 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8484,9 +8122,7 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8523,9 +8159,7 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8562,9 +8196,7 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8601,9 +8233,7 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8640,9 +8270,7 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8679,9 +8307,7 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8718,9 +8344,7 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8757,9 +8381,7 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8796,9 +8418,7 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8835,9 +8455,7 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8874,9 +8492,7 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8913,9 +8529,7 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8952,9 +8566,7 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8991,9 +8603,7 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9030,9 +8640,7 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9066,23 +8674,19 @@
         <v>240325.2103305299</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>376.8</v>
-      </c>
+      <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L221" t="n">
-        <v>1.119734607218684</v>
-      </c>
-      <c r="M221" t="n">
-        <v>1.019860440150295</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -9107,11 +8711,15 @@
         <v>177772.7178737099</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -9144,7 +8752,11 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -9177,7 +8789,11 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -9210,7 +8826,11 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -9239,14 +8859,16 @@
         <v>422411.1111478099</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L226" t="inlineStr"/>
       <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
@@ -9272,7 +8894,7 @@
         <v>348686.1451478099</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -9305,7 +8927,7 @@
         <v>362192.0344478099</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -9338,7 +8960,7 @@
         <v>359311.4534478099</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -9371,7 +8993,7 @@
         <v>347920.6019478099</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -9404,7 +9026,7 @@
         <v>343021.5543478099</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -9437,7 +9059,7 @@
         <v>340481.08794781</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -9470,7 +9092,7 @@
         <v>340642.8450478099</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -9503,7 +9125,7 @@
         <v>324404.52924781</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -9536,7 +9158,7 @@
         <v>319189.0822553399</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -9569,7 +9191,7 @@
         <v>318251.45535534</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -9602,7 +9224,7 @@
         <v>322523.04285534</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -9635,7 +9257,7 @@
         <v>314971.30305534</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -9668,7 +9290,7 @@
         <v>319807.72335534</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -9701,7 +9323,7 @@
         <v>262157.01545534</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -9998,7 +9620,7 @@
         <v>232281.7221049101</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -10031,7 +9653,7 @@
         <v>235243.6047049101</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -10064,7 +9686,7 @@
         <v>221548.2519049101</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -10097,7 +9719,7 @@
         <v>221548.2519049101</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -10130,7 +9752,7 @@
         <v>221772.5833049101</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -10163,7 +9785,7 @@
         <v>221638.8953049101</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -10196,7 +9818,7 @@
         <v>221702.8953049101</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
